--- a/04_Modelling/01_benthic/02_eDNA/BRT_Output_edna/contrib_mod_best_fixed_reduced_richness_gaussian.xlsx
+++ b/04_Modelling/01_benthic/02_eDNA/BRT_Output_edna/contrib_mod_best_fixed_reduced_richness_gaussian.xlsx
@@ -376,27 +376,27 @@
         </is>
       </c>
       <c r="B2">
-        <v>37.03304821371059</v>
+        <v>38.98305797969099</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Salinity</t>
+          <t>SSTmax</t>
         </is>
       </c>
       <c r="B3">
-        <v>22.95547089747117</v>
+        <v>22.09628308700998</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SSTmax</t>
+          <t>Salinity</t>
         </is>
       </c>
       <c r="B4">
-        <v>21.84187278570012</v>
+        <v>21.99824228171086</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>18.16960810311812</v>
+        <v>16.92241665158817</v>
       </c>
     </row>
   </sheetData>
